--- a/network analysis sandbox/data/DATA SCIENCE AND ADVANCED ANALYTICS(1-13).xlsx
+++ b/network analysis sandbox/data/DATA SCIENCE AND ADVANCED ANALYTICS(1-13).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melanie.murphy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Private\brian.calhoon\methods-corner\network analysis sandbox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB69EA66-CD8A-4E20-9E28-E00E9AE6D4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44E4047-8228-420D-966B-1BDB8C5D9DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
   <si>
     <t>ID</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Kyleigh Payne</t>
   </si>
   <si>
-    <t>Depends on the project/assignment</t>
-  </si>
-  <si>
     <t>GUNJAN.MAHESHWARI@tetratech.com</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t xml:space="preserve">Aaron Lee, George Sarris, John Wildgrube </t>
   </si>
   <si>
-    <t xml:space="preserve">I'm fairly new to MSI but I would go to Aaron Lee to run through ideas :) </t>
-  </si>
-  <si>
     <t>CAROLYN.FONSECA@tetratech.com</t>
   </si>
   <si>
@@ -311,12 +305,6 @@
     <t>I'd like to learn the basics to inform our data-driven / people-centered justice approaches</t>
   </si>
   <si>
-    <t>Just started here</t>
-  </si>
-  <si>
-    <t>The other Technical Director in ROLGA, Nils Taxel, Technical Manager Clare Bambrick, Supervisor Robert Underwood</t>
-  </si>
-  <si>
     <t>LAUREN.HEADLEY@tetratech.com</t>
   </si>
   <si>
@@ -344,9 +332,6 @@
     <t>Rasheedah Shabazz-Mana-Mana, Ajiri Ubogu</t>
   </si>
   <si>
-    <t>No one right now since I'm not involved in the technical side</t>
-  </si>
-  <si>
     <t>KEVIN.DAVISON@tetratech.com</t>
   </si>
   <si>
@@ -362,12 +347,6 @@
     <t>Gain additional skills and grow into a technical role</t>
   </si>
   <si>
-    <t>David Hinkle and Brian Calhoon</t>
-  </si>
-  <si>
-    <t>Dave Hinkle Brian Calhoon</t>
-  </si>
-  <si>
     <t>KEIDA.GABA@tetratech.com</t>
   </si>
   <si>
@@ -389,17 +368,29 @@
     <t>learn how to analyze data, but also visualize it through more tools in a way that will also be beneficial for my current work!</t>
   </si>
   <si>
-    <t>Christine Canavan, Ajiri Ubogu, past staff; Natalya Ghurbanyan</t>
-  </si>
-  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Aaron Lee</t>
+  </si>
+  <si>
+    <t>David Hinkle, Brian Calhoon</t>
+  </si>
+  <si>
+    <t>Dave Hinkle, Brian Calhoon</t>
+  </si>
+  <si>
+    <t>Christine Canavan, Ajiri Ubogu, Natalya Ghurbanyan</t>
+  </si>
+  <si>
+    <t>Nils Taxel, Clare Bambrick, Robert Underwood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,28 +819,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.5546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="1"/>
+    <col min="12" max="12" width="69.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.1">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -922,7 +913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="29.1">
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -957,7 +948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5">
+    <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -988,317 +979,308 @@
       <c r="K4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" ht="29.1">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" ht="57.95">
+    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" ht="87">
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="101.45">
+    <row r="8" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="10" spans="1:12" ht="43.5">
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="144.94999999999999">
+    <row r="11" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>102</v>
-      </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="174">
+    <row r="13" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
